--- a/src/assets/mx-1-template.xlsx
+++ b/src/assets/mx-1-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/PhpstormProjects/rosnova-warehouse/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDC1A0B-A60E-E04D-B252-59C55E1262C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BABCA49-5925-DC42-8BFD-78E5C0B9B874}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,209 +883,215 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1116,12 +1122,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,85 +1484,85 @@
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
       <c r="O4" s="7"/>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="76"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="52"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" customHeight="1">
       <c r="O5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="71" t="s">
+      <c r="P5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="73"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="49"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" customHeight="1">
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
       <c r="O6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="63" t="s">
+      <c r="P6" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="65"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="46"/>
     </row>
     <row r="7" spans="1:19" ht="8.25" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="68"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
     </row>
     <row r="8" spans="1:19" ht="11" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="67"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
       <c r="C9" s="34" t="s">
@@ -1572,70 +1572,70 @@
       <c r="O9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="46"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
       <c r="O10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="46"/>
     </row>
     <row r="11" spans="1:19" ht="8.25" customHeight="1">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="12"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="68"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="64"/>
     </row>
     <row r="12" spans="1:19" ht="11" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="67"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" customHeight="1">
       <c r="D13" s="35" t="s">
@@ -1644,66 +1644,66 @@
       <c r="L13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="84" t="s">
+      <c r="M13" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" customHeight="1">
-      <c r="M14" s="82" t="s">
+      <c r="M14" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="46"/>
     </row>
     <row r="15" spans="1:19" ht="16.5" customHeight="1" thickBot="1">
       <c r="O15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="81"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="59"/>
     </row>
     <row r="17" spans="1:19" ht="21" customHeight="1" thickBot="1">
-      <c r="G17" s="98" t="s">
+      <c r="G17" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="98" t="s">
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="99"/>
-      <c r="P17" s="100"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="85"/>
     </row>
     <row r="18" spans="1:19" ht="15" thickBot="1">
       <c r="F18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="106"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="110"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="101"/>
     </row>
     <row r="19" spans="1:19" ht="14">
       <c r="B19" s="9" t="s">
@@ -1716,52 +1716,52 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="14">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
       <c r="S21" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="78" t="s">
+      <c r="J22" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
     </row>
     <row r="23" spans="1:19" ht="14">
       <c r="B23" s="6" t="s">
@@ -1773,90 +1773,90 @@
     </row>
     <row r="25" spans="1:19" ht="8.25" customHeight="1">
       <c r="B25" s="2"/>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="95" t="s">
+      <c r="D25" s="78"/>
+      <c r="E25" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="92" t="s">
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="92" t="s">
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="93"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="78"/>
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1">
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="94"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="89"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="74"/>
     </row>
     <row r="27" spans="1:19" ht="46.5" customHeight="1">
-      <c r="B27" s="87"/>
+      <c r="B27" s="72"/>
       <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="88" t="s">
+      <c r="E27" s="82"/>
+      <c r="F27" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="89"/>
-      <c r="H27" s="101" t="s">
+      <c r="G27" s="74"/>
+      <c r="H27" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="90" t="s">
+      <c r="I27" s="75"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="101" t="s">
+      <c r="P27" s="75"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="S27" s="91"/>
+      <c r="S27" s="76"/>
     </row>
     <row r="28" spans="1:19" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B28" s="122">
+      <c r="B28" s="42">
         <v>1</v>
       </c>
       <c r="C28" s="14">
@@ -1868,449 +1868,569 @@
       <c r="E28" s="17">
         <v>4</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="106">
         <v>5</v>
       </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="58">
+      <c r="G28" s="106"/>
+      <c r="H28" s="53">
         <v>6</v>
       </c>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58">
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53">
         <v>7</v>
       </c>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58">
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53">
         <v>8</v>
       </c>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58">
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53">
         <v>9</v>
       </c>
-      <c r="S28" s="58"/>
+      <c r="S28" s="53"/>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1">
-      <c r="B29" s="123"/>
+      <c r="B29" s="43"/>
       <c r="C29" s="37"/>
       <c r="D29" s="31"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="62"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="91"/>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1">
-      <c r="B30" s="123"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="37"/>
       <c r="D30" s="32"/>
       <c r="E30" s="39"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-      <c r="S30" s="50"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="104"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="105"/>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1">
-      <c r="B31" s="123"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="37"/>
       <c r="D31" s="32"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="50"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="105"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1">
-      <c r="B32" s="123"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="37"/>
       <c r="D32" s="32"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="50"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="105"/>
     </row>
     <row r="33" spans="2:19" ht="15" customHeight="1">
-      <c r="B33" s="123"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="37"/>
       <c r="D33" s="32"/>
       <c r="E33" s="39"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="50"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="105"/>
     </row>
     <row r="34" spans="2:19" ht="15" customHeight="1">
-      <c r="B34" s="123"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="37"/>
       <c r="D34" s="32"/>
       <c r="E34" s="39"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="50"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="105"/>
     </row>
     <row r="35" spans="2:19" ht="15" customHeight="1">
-      <c r="B35" s="123"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="37"/>
       <c r="D35" s="32"/>
       <c r="E35" s="39"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="50"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="104"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="105"/>
     </row>
     <row r="36" spans="2:19" ht="15" customHeight="1">
-      <c r="B36" s="123"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="37"/>
       <c r="D36" s="32"/>
       <c r="E36" s="39"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="50"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="105"/>
     </row>
     <row r="37" spans="2:19" ht="15" customHeight="1">
-      <c r="B37" s="123"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="37"/>
       <c r="D37" s="32"/>
       <c r="E37" s="39"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="50"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="104"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="105"/>
     </row>
     <row r="38" spans="2:19" ht="15" customHeight="1">
-      <c r="B38" s="123"/>
+      <c r="B38" s="43"/>
       <c r="C38" s="37"/>
       <c r="D38" s="32"/>
       <c r="E38" s="39"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="50"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="105"/>
     </row>
     <row r="39" spans="2:19" ht="15" customHeight="1">
-      <c r="B39" s="123"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="37"/>
       <c r="D39" s="32"/>
       <c r="E39" s="39"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="50"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="105"/>
     </row>
     <row r="40" spans="2:19" ht="15" customHeight="1">
-      <c r="B40" s="123"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="37"/>
       <c r="D40" s="32"/>
       <c r="E40" s="39"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="50"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="105"/>
     </row>
     <row r="41" spans="2:19" ht="15" customHeight="1">
-      <c r="B41" s="123"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="37"/>
       <c r="D41" s="32"/>
       <c r="E41" s="39"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="46"/>
-      <c r="S41" s="50"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="103"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="105"/>
     </row>
     <row r="42" spans="2:19" ht="15" customHeight="1">
-      <c r="B42" s="123"/>
+      <c r="B42" s="43"/>
       <c r="C42" s="37"/>
       <c r="D42" s="32"/>
       <c r="E42" s="39"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="46"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="46"/>
-      <c r="S42" s="50"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="105"/>
     </row>
     <row r="43" spans="2:19" ht="15" customHeight="1">
-      <c r="B43" s="123"/>
+      <c r="B43" s="43"/>
       <c r="C43" s="37"/>
       <c r="D43" s="32"/>
       <c r="E43" s="39"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="50"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="104"/>
+      <c r="S43" s="105"/>
     </row>
     <row r="44" spans="2:19" ht="15" customHeight="1">
-      <c r="B44" s="123"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="37"/>
       <c r="D44" s="32"/>
       <c r="E44" s="39"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="46"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="50"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="104"/>
+      <c r="S44" s="105"/>
     </row>
     <row r="45" spans="2:19" ht="15" customHeight="1">
-      <c r="B45" s="123"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="37"/>
       <c r="D45" s="32"/>
       <c r="E45" s="39"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="46"/>
-      <c r="S45" s="50"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="103"/>
+      <c r="K45" s="104"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="104"/>
+      <c r="S45" s="105"/>
     </row>
     <row r="46" spans="2:19" ht="15" customHeight="1">
-      <c r="B46" s="123"/>
+      <c r="B46" s="43"/>
       <c r="C46" s="37"/>
       <c r="D46" s="32"/>
       <c r="E46" s="39"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="50"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="105"/>
     </row>
     <row r="47" spans="2:19" ht="15" customHeight="1">
-      <c r="B47" s="123"/>
+      <c r="B47" s="43"/>
       <c r="C47" s="37"/>
       <c r="D47" s="32"/>
       <c r="E47" s="39"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="50"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="104"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="104"/>
+      <c r="S47" s="105"/>
     </row>
     <row r="48" spans="2:19" ht="15" customHeight="1" thickBot="1">
-      <c r="B48" s="123"/>
+      <c r="B48" s="43"/>
       <c r="C48" s="37"/>
       <c r="D48" s="33"/>
       <c r="E48" s="40"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="53"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="107"/>
+      <c r="N48" s="107"/>
+      <c r="O48" s="107"/>
+      <c r="P48" s="107"/>
+      <c r="Q48" s="107"/>
+      <c r="R48" s="107"/>
+      <c r="S48" s="111"/>
     </row>
     <row r="49" spans="10:19" ht="15" customHeight="1">
       <c r="J49" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51" t="s">
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="110"/>
+      <c r="O49" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="144">
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P7:S8"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="K25:N27"/>
+    <mergeCell ref="O25:S26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="N18:P18"/>
     <mergeCell ref="P6:S6"/>
     <mergeCell ref="P5:S5"/>
     <mergeCell ref="P4:S4"/>
@@ -2335,126 +2455,6 @@
     <mergeCell ref="E25:E27"/>
     <mergeCell ref="G17:M17"/>
     <mergeCell ref="N17:P17"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P7:S8"/>
-    <mergeCell ref="J22:R22"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="K25:N27"/>
-    <mergeCell ref="O25:S26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="F25:J26"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="O47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="O49:Q49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="O44:Q44"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="O45:Q45"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O41:Q41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2498,72 +2498,72 @@
     </row>
     <row r="3" spans="2:16" ht="8.25" customHeight="1">
       <c r="B3" s="24"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="92" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="93"/>
-      <c r="J3" s="92" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="95" t="s">
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="93"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="89"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="74"/>
     </row>
     <row r="5" spans="2:16" ht="46.5" customHeight="1">
-      <c r="B5" s="97"/>
-      <c r="C5" s="94" t="s">
+      <c r="B5" s="82"/>
+      <c r="C5" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="101" t="s">
+      <c r="H5" s="79"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="90"/>
-      <c r="L5" s="91"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="76"/>
       <c r="M5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="97"/>
+      <c r="N5" s="82"/>
       <c r="O5" s="5" t="s">
         <v>42</v>
       </c>
@@ -2575,24 +2575,24 @@
       <c r="B6" s="26">
         <v>1</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="118">
         <v>2</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
       <c r="G6" s="28">
         <v>3</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="119">
         <v>4</v>
       </c>
-      <c r="I6" s="117"/>
-      <c r="J6" s="116">
+      <c r="I6" s="119"/>
+      <c r="J6" s="118">
         <v>5</v>
       </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
       <c r="M6" s="28">
         <v>6</v>
       </c>
@@ -2608,16 +2608,16 @@
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1">
       <c r="B7" s="30"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="43"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="31"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
@@ -2625,16 +2625,16 @@
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1">
       <c r="B8" s="30"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="32"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="43"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="32"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -2642,16 +2642,16 @@
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1">
       <c r="B9" s="30"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="32"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="43"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="32"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -2659,16 +2659,16 @@
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1">
       <c r="B10" s="30"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="43"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="32"/>
       <c r="N10" s="16"/>
       <c r="O10" s="16"/>
@@ -2676,16 +2676,16 @@
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1">
       <c r="B11" s="30"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="43"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="32"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
@@ -2693,16 +2693,16 @@
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1">
       <c r="B12" s="30"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="43"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="32"/>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
@@ -2710,16 +2710,16 @@
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1">
       <c r="B13" s="30"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="43"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="32"/>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
@@ -2727,16 +2727,16 @@
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1">
       <c r="B14" s="30"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="32"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="43"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="32"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
@@ -2744,16 +2744,16 @@
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1">
       <c r="B15" s="30"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="43"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="32"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -2761,16 +2761,16 @@
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1">
       <c r="B16" s="30"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="43"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="32"/>
       <c r="N16" s="16"/>
       <c r="O16" s="16"/>
@@ -2778,16 +2778,16 @@
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1">
       <c r="B17" s="30"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="43"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="32"/>
       <c r="N17" s="16"/>
       <c r="O17" s="16"/>
@@ -2795,16 +2795,16 @@
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1">
       <c r="B18" s="30"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="43"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="87"/>
       <c r="M18" s="32"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
@@ -2812,16 +2812,16 @@
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1">
       <c r="B19" s="30"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="43"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="32"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
@@ -2829,16 +2829,16 @@
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1">
       <c r="B20" s="30"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="43"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="32"/>
       <c r="N20" s="16"/>
       <c r="O20" s="16"/>
@@ -2846,16 +2846,16 @@
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1">
       <c r="B21" s="30"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="43"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="87"/>
       <c r="M21" s="32"/>
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
@@ -2863,16 +2863,16 @@
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1">
       <c r="B22" s="30"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
       <c r="G22" s="32"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="43"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="32"/>
       <c r="N22" s="16"/>
       <c r="O22" s="16"/>
@@ -2880,16 +2880,16 @@
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="B23" s="30"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
       <c r="G23" s="32"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="43"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="32"/>
       <c r="N23" s="16"/>
       <c r="O23" s="16"/>
@@ -2897,16 +2897,16 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1">
       <c r="B24" s="30"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="43"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="87"/>
       <c r="M24" s="32"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -2914,16 +2914,16 @@
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1">
       <c r="B25" s="30"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="112"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="43"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="32"/>
       <c r="N25" s="16"/>
       <c r="O25" s="16"/>
@@ -2931,16 +2931,16 @@
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1">
       <c r="B26" s="30"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="43"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="32"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -2948,16 +2948,16 @@
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="B27" s="30"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="112"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
       <c r="G27" s="33"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="43"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="87"/>
       <c r="M27" s="33"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
@@ -2991,53 +2991,53 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
+      <c r="P30" s="116"/>
     </row>
     <row r="31" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A31" s="114"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="116"/>
     </row>
     <row r="32" spans="1:16" ht="14.25" customHeight="1">
-      <c r="A32" s="115"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
     </row>
     <row r="33" spans="1:16" ht="14">
       <c r="A33" s="6"/>
@@ -3046,54 +3046,54 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
     </row>
     <row r="34" spans="1:16" ht="14">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
+      <c r="A34" s="116"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
+      <c r="P34" s="116"/>
     </row>
     <row r="35" spans="1:16" ht="14">
-      <c r="A35" s="115"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="115"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
     </row>
     <row r="36" spans="1:16" ht="23.25" customHeight="1">
       <c r="B36" s="6" t="s">
@@ -3104,40 +3104,40 @@
       <c r="B37" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="41"/>
-      <c r="I38" s="78" t="s">
+      <c r="I38" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="78"/>
+      <c r="J38" s="56"/>
       <c r="K38" s="41"/>
-      <c r="L38" s="78" t="s">
+      <c r="L38" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
     </row>
     <row r="39" spans="1:16">
       <c r="C39" s="7" t="s">
@@ -3148,40 +3148,40 @@
       <c r="B40" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="114"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
     </row>
     <row r="41" spans="1:16">
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
       <c r="H41" s="41"/>
-      <c r="I41" s="78" t="s">
+      <c r="I41" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="J41" s="78"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="41"/>
-      <c r="L41" s="78" t="s">
+      <c r="L41" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56"/>
     </row>
     <row r="42" spans="1:16" ht="21.75" customHeight="1">
       <c r="C42" s="7" t="s">
@@ -3190,18 +3190,70 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="H3:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A31:P31"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="E33:P33"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C3:G4"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="O3:P4"/>
+    <mergeCell ref="F30:P30"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="L41:P41"/>
@@ -3218,70 +3270,18 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="F30:P30"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C3:G4"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="A31:P31"/>
-    <mergeCell ref="A32:P32"/>
-    <mergeCell ref="E33:P33"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="H3:I5"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.59055118110236227" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait"/>
